--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2206163.037713541</v>
+        <v>-2208968.983768731</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38.05509301711089</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>204.1112564785982</v>
+        <v>414.0588908408162</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.7362573623986</v>
       </c>
       <c r="I2" t="n">
-        <v>162.522490658726</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>71.73533428546422</v>
+        <v>71.73533428546428</v>
       </c>
       <c r="S2" t="n">
-        <v>180.6759134952031</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.6509107473003</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>25.68374688865845</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -738,25 +738,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>139.8687074563331</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6780005204371</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>105.8079545549729</v>
       </c>
       <c r="I3" t="n">
-        <v>66.48301159802722</v>
+        <v>66.48301159802723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.83742364780763</v>
+        <v>58.83742364780765</v>
       </c>
       <c r="S3" t="n">
-        <v>29.64084844498495</v>
+        <v>159.3214913575834</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.4822295952212</v>
       </c>
       <c r="U3" t="n">
         <v>225.8975980913187</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.91234155828224</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.44160735593313</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>199.1615977401871</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5616349313748</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>21.34056951135568</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0.3959153645110012</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>150.7493136550987</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.9169039459368</v>
+        <v>330.1527736757973</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>29.36682762385502</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
         <v>45.44580843958667</v>
@@ -1038,7 +1038,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>135.2329947506888</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.53142619265594</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>29.64897240096643</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1148,7 +1148,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>26.73524267226981</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>195.1605983473579</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>23.55147521053278</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.781160222249216</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>164.8224308749188</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>41.33703994143007</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0.6197054599889589</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>172.8869738680026</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>190.7368854541452</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>54.63637568893558</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2378,13 +2378,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>141.2342243404105</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>95.12712756824172</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2801,10 +2801,10 @@
         <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187864</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3253,7 +3253,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600558</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3275,13 +3275,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1183.597011605039</v>
+        <v>1164.832634259682</v>
       </c>
       <c r="C2" t="n">
-        <v>814.6344946646273</v>
+        <v>795.8701173192703</v>
       </c>
       <c r="D2" t="n">
-        <v>456.3687960578768</v>
+        <v>795.8701173192703</v>
       </c>
       <c r="E2" t="n">
-        <v>417.9293081618051</v>
+        <v>795.8701173192703</v>
       </c>
       <c r="F2" t="n">
-        <v>417.9293081618051</v>
+        <v>795.8701173192703</v>
       </c>
       <c r="G2" t="n">
-        <v>211.7563218197868</v>
+        <v>377.6288134396581</v>
       </c>
       <c r="H2" t="n">
-        <v>211.7563218197868</v>
+        <v>47.59218984127563</v>
       </c>
       <c r="I2" t="n">
-        <v>47.59218984127565</v>
+        <v>47.59218984127563</v>
       </c>
       <c r="J2" t="n">
         <v>140.2766257379392</v>
       </c>
       <c r="K2" t="n">
-        <v>399.9313734332721</v>
+        <v>399.931373433272</v>
       </c>
       <c r="L2" t="n">
-        <v>774.3326757349369</v>
+        <v>774.3326757349366</v>
       </c>
       <c r="M2" t="n">
         <v>1207.532809426322</v>
@@ -4343,37 +4343,37 @@
         <v>1633.110576631816</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.783956408639</v>
+        <v>1989.783956408638</v>
       </c>
       <c r="P2" t="n">
-        <v>2256.522051210339</v>
+        <v>2256.522051210338</v>
       </c>
       <c r="Q2" t="n">
         <v>2379.609492063782</v>
       </c>
       <c r="R2" t="n">
-        <v>2307.149558442101</v>
+        <v>2307.1495584421</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.648635719674</v>
+        <v>2307.1495584421</v>
       </c>
       <c r="T2" t="n">
-        <v>1904.799230924421</v>
+        <v>2307.1495584421</v>
       </c>
       <c r="U2" t="n">
-        <v>1904.799230924421</v>
+        <v>2307.1495584421</v>
       </c>
       <c r="V2" t="n">
-        <v>1573.736343580851</v>
+        <v>2281.206379766688</v>
       </c>
       <c r="W2" t="n">
-        <v>1573.736343580851</v>
+        <v>1928.437724496574</v>
       </c>
       <c r="X2" t="n">
-        <v>1573.736343580851</v>
+        <v>1554.971966235494</v>
       </c>
       <c r="Y2" t="n">
-        <v>1183.597011605039</v>
+        <v>1164.832634259682</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.8415070889288</v>
+        <v>658.3739591012311</v>
       </c>
       <c r="C3" t="n">
-        <v>814.3884778078018</v>
+        <v>517.0924364180663</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4540681465505</v>
+        <v>368.158026756815</v>
       </c>
       <c r="E3" t="n">
-        <v>506.216613141095</v>
+        <v>368.158026756815</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6820551679799</v>
+        <v>221.6234687837</v>
       </c>
       <c r="G3" t="n">
         <v>221.6234687837</v>
@@ -4404,19 +4404,19 @@
         <v>114.7467470110001</v>
       </c>
       <c r="I3" t="n">
-        <v>47.59218984127565</v>
+        <v>47.59218984127563</v>
       </c>
       <c r="J3" t="n">
-        <v>47.59218984127565</v>
+        <v>109.101025226374</v>
       </c>
       <c r="K3" t="n">
-        <v>279.3414296123769</v>
+        <v>340.8502649974752</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9860664824244</v>
+        <v>713.8701137890697</v>
       </c>
       <c r="M3" t="n">
-        <v>996.2618574529076</v>
+        <v>996.2618574529075</v>
       </c>
       <c r="N3" t="n">
         <v>1512.141402063468</v>
@@ -4431,28 +4431,28 @@
         <v>2379.609492063782</v>
       </c>
       <c r="R3" t="n">
-        <v>2320.177751005391</v>
+        <v>2320.17775100539</v>
       </c>
       <c r="S3" t="n">
-        <v>2290.23750005086</v>
+        <v>2159.246951654296</v>
       </c>
       <c r="T3" t="n">
-        <v>2290.23750005086</v>
+        <v>1959.769952063163</v>
       </c>
       <c r="U3" t="n">
-        <v>2062.058108039428</v>
+        <v>1731.59056005173</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.905999807685</v>
+        <v>1496.438451819987</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.668643079483</v>
+        <v>1242.201095091786</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.817142873951</v>
+        <v>1034.349594886253</v>
       </c>
       <c r="Y3" t="n">
-        <v>1157.056844108997</v>
+        <v>826.5892961212992</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197.7088292536114</v>
+        <v>102.0491005062072</v>
       </c>
       <c r="C4" t="n">
-        <v>197.7088292536114</v>
+        <v>102.0491005062072</v>
       </c>
       <c r="D4" t="n">
-        <v>47.59218984127565</v>
+        <v>102.0491005062072</v>
       </c>
       <c r="E4" t="n">
-        <v>47.59218984127565</v>
+        <v>102.0491005062072</v>
       </c>
       <c r="F4" t="n">
-        <v>47.59218984127565</v>
+        <v>102.0491005062072</v>
       </c>
       <c r="G4" t="n">
-        <v>47.59218984127565</v>
+        <v>102.0491005062072</v>
       </c>
       <c r="H4" t="n">
-        <v>47.59218984127565</v>
+        <v>102.0491005062072</v>
       </c>
       <c r="I4" t="n">
-        <v>47.59218984127565</v>
+        <v>102.0491005062072</v>
       </c>
       <c r="J4" t="n">
-        <v>47.59218984127565</v>
+        <v>47.59218984127563</v>
       </c>
       <c r="K4" t="n">
-        <v>89.72043354165845</v>
+        <v>89.72043354165839</v>
       </c>
       <c r="L4" t="n">
-        <v>199.1565158344531</v>
+        <v>199.156515834453</v>
       </c>
       <c r="M4" t="n">
-        <v>324.9306436357411</v>
+        <v>324.930643635741</v>
       </c>
       <c r="N4" t="n">
-        <v>453.1487602187659</v>
+        <v>453.1487602187656</v>
       </c>
       <c r="O4" t="n">
-        <v>555.5626480722325</v>
+        <v>555.5626480722322</v>
       </c>
       <c r="P4" t="n">
-        <v>619.6747394478356</v>
+        <v>619.6747394478352</v>
       </c>
       <c r="Q4" t="n">
-        <v>619.6747394478356</v>
+        <v>579.8347320175998</v>
       </c>
       <c r="R4" t="n">
-        <v>619.6747394478356</v>
+        <v>579.8347320175998</v>
       </c>
       <c r="S4" t="n">
-        <v>418.5014083971415</v>
+        <v>579.8347320175998</v>
       </c>
       <c r="T4" t="n">
-        <v>418.5014083971415</v>
+        <v>351.9946967333828</v>
       </c>
       <c r="U4" t="n">
-        <v>418.5014083971415</v>
+        <v>351.9946967333828</v>
       </c>
       <c r="V4" t="n">
-        <v>418.5014083971415</v>
+        <v>351.9946967333828</v>
       </c>
       <c r="W4" t="n">
-        <v>418.5014083971415</v>
+        <v>330.4385659138316</v>
       </c>
       <c r="X4" t="n">
-        <v>418.5014083971415</v>
+        <v>102.4490150158143</v>
       </c>
       <c r="Y4" t="n">
-        <v>197.7088292536114</v>
+        <v>102.0491005062072</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1707.989507826075</v>
+        <v>880.3354250350806</v>
       </c>
       <c r="C5" t="n">
-        <v>1339.026990885663</v>
+        <v>511.3729080946688</v>
       </c>
       <c r="D5" t="n">
-        <v>980.7612922789126</v>
+        <v>511.3729080946688</v>
       </c>
       <c r="E5" t="n">
-        <v>594.9730396806683</v>
+        <v>511.3729080946688</v>
       </c>
       <c r="F5" t="n">
-        <v>183.9871348910608</v>
+        <v>504.4274073454654</v>
       </c>
       <c r="G5" t="n">
         <v>170.9397571678923</v>
@@ -4562,25 +4562,25 @@
         <v>170.9397571678923</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>72.4810365613864</v>
+        <v>239.8866855817394</v>
       </c>
       <c r="K5" t="n">
-        <v>155.0441911359788</v>
+        <v>322.4498401563318</v>
       </c>
       <c r="L5" t="n">
-        <v>707.8574493821779</v>
+        <v>875.263098402531</v>
       </c>
       <c r="M5" t="n">
-        <v>1339.57526036549</v>
+        <v>1506.980909385843</v>
       </c>
       <c r="N5" t="n">
-        <v>1966.882928425336</v>
+        <v>1869.459678361956</v>
       </c>
       <c r="O5" t="n">
-        <v>2416.620883129034</v>
+        <v>2416.620883129033</v>
       </c>
       <c r="P5" t="n">
         <v>2527.35520837856</v>
@@ -4595,22 +4595,22 @@
         <v>2406.124290896983</v>
       </c>
       <c r="T5" t="n">
-        <v>2191.324429164695</v>
+        <v>2191.324429164694</v>
       </c>
       <c r="U5" t="n">
-        <v>2191.324429164695</v>
+        <v>1937.632725909845</v>
       </c>
       <c r="V5" t="n">
-        <v>1860.261541821124</v>
+        <v>1606.569838566274</v>
       </c>
       <c r="W5" t="n">
-        <v>1860.261541821124</v>
+        <v>1253.80118329616</v>
       </c>
       <c r="X5" t="n">
-        <v>1860.261541821124</v>
+        <v>880.3354250350806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1860.261541821124</v>
+        <v>880.3354250350806</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>893.4159553857316</v>
+        <v>964.6684709946088</v>
       </c>
       <c r="C6" t="n">
-        <v>718.9629261046047</v>
+        <v>790.2154417134818</v>
       </c>
       <c r="D6" t="n">
-        <v>570.0285164433534</v>
+        <v>641.2810320522306</v>
       </c>
       <c r="E6" t="n">
-        <v>410.7910614378979</v>
+        <v>482.0435770467751</v>
       </c>
       <c r="F6" t="n">
-        <v>264.2565034647829</v>
+        <v>335.5090190736601</v>
       </c>
       <c r="G6" t="n">
-        <v>126.8151058240048</v>
+        <v>198.067621432882</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768663</v>
+        <v>97.15164357768661</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>51.24678656800311</v>
+        <v>169.9060384248988</v>
       </c>
       <c r="K6" t="n">
-        <v>380.675190873813</v>
+        <v>499.3344427307086</v>
       </c>
       <c r="L6" t="n">
-        <v>517.904788889507</v>
+        <v>1003.695982596827</v>
       </c>
       <c r="M6" t="n">
-        <v>1152.083772668545</v>
+        <v>1637.874966375866</v>
       </c>
       <c r="N6" t="n">
-        <v>1786.262756447584</v>
+        <v>2063.423932143628</v>
       </c>
       <c r="O6" t="n">
-        <v>2335.698765200307</v>
+        <v>2222.936244812388</v>
       </c>
       <c r="P6" t="n">
-        <v>2539.602387198178</v>
+        <v>2331.625872339687</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4674,10 +4674,10 @@
         <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825065</v>
+        <v>2194.771343825064</v>
       </c>
       <c r="U6" t="n">
-        <v>1966.632556336231</v>
+        <v>1966.63255633623</v>
       </c>
       <c r="V6" t="n">
         <v>1731.480448104488</v>
@@ -4686,10 +4686,10 @@
         <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1269.391591170754</v>
+        <v>1340.644106779631</v>
       </c>
       <c r="Y6" t="n">
-        <v>1061.6312924058</v>
+        <v>1132.883808014677</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.2127024906389</v>
+        <v>246.982924880432</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>246.982924880432</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>246.982924880432</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>99.06983129803888</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>99.06983129803888</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="J7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4753,22 +4753,22 @@
         <v>1051.181468027348</v>
       </c>
       <c r="T7" t="n">
-        <v>1051.181468027348</v>
+        <v>825.5522713397128</v>
       </c>
       <c r="U7" t="n">
-        <v>1051.181468027348</v>
+        <v>536.4000949173926</v>
       </c>
       <c r="V7" t="n">
-        <v>1051.181468027348</v>
+        <v>536.4000949173926</v>
       </c>
       <c r="W7" t="n">
-        <v>761.7642979903871</v>
+        <v>246.982924880432</v>
       </c>
       <c r="X7" t="n">
-        <v>761.7642979903871</v>
+        <v>246.982924880432</v>
       </c>
       <c r="Y7" t="n">
-        <v>540.971718846857</v>
+        <v>246.982924880432</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1634.158487398107</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C8" t="n">
-        <v>1634.158487398107</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4820,7 +4820,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2535.3340327716</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2326.588391377424</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190805</v>
+        <v>2073.007330641604</v>
       </c>
       <c r="V8" t="n">
-        <v>2184.059060190805</v>
+        <v>2073.007330641604</v>
       </c>
       <c r="W8" t="n">
-        <v>1831.290404920691</v>
+        <v>1720.23867537149</v>
       </c>
       <c r="X8" t="n">
-        <v>1634.158487398107</v>
+        <v>1720.23867537149</v>
       </c>
       <c r="Y8" t="n">
-        <v>1634.158487398107</v>
+        <v>1330.099343395678</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
@@ -4887,19 +4887,19 @@
         <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458217</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800311</v>
+        <v>540.9789253056841</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800311</v>
+        <v>372.0427423777772</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>221.9261029654415</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>221.9261029654415</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>75.03615546753116</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>75.03615546753116</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>75.03615546753116</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4987,25 +4987,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U10" t="n">
-        <v>825.1371474485136</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="V10" t="n">
-        <v>570.4526592426267</v>
+        <v>1279.178225384192</v>
       </c>
       <c r="W10" t="n">
-        <v>281.0354892056661</v>
+        <v>989.7610553472316</v>
       </c>
       <c r="X10" t="n">
-        <v>53.04593830764878</v>
+        <v>761.7715044492143</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.24678656800311</v>
+        <v>540.9789253056841</v>
       </c>
     </row>
     <row r="11">
@@ -5024,55 +5024,55 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784064</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504995</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381638</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557706</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578603</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5300,16 +5300,16 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>779.6143379232838</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>403.3505586019938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2022.429238550191</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1733.354011894389</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1478.669523688502</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1189.252353651541</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X16" t="n">
-        <v>961.2628027535235</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y16" t="n">
-        <v>961.2628027535235</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168622</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5522,43 +5522,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>196.5408620426154</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5707,16 +5707,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1495.722333193953</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1206.305163156993</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>984.9192356072716</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6026,10 +6026,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362685</v>
@@ -6227,19 +6227,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694706</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362685</v>
@@ -6461,25 +6461,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6598,19 +6598,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6859,22 +6859,22 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
@@ -6889,16 +6889,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6923,31 +6923,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,16 +7075,16 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7339,7 +7339,7 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7351,28 +7351,28 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7391,7 +7391,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,7 +7570,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7682,10 +7682,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
         <v>3094.515198591809</v>
@@ -7786,16 +7786,16 @@
         <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,37 +7804,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954143</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380722</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311316</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>63.96089858778414</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>226.0168989180581</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>258.7514806119744</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8225,10 +8225,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>169.8429859435664</v>
       </c>
       <c r="O5" t="n">
-        <v>282.3928579664021</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>459.2743913378118</v>
+        <v>459.2743913378117</v>
       </c>
       <c r="N6" t="n">
-        <v>439.9214566933068</v>
+        <v>229.1840647627245</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>96.17575199047755</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>168.7434581780647</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>343.8752770551509</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>326.7362573623986</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.522490658726</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,10 +22604,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>302.0685115814765</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22626,13 +22626,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>32.83979153198263</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -22702,22 +22702,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4330325613104</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>152.2060744799341</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,13 +22759,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2885958948282</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>265.1824288252353</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.00954930701846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>104.0840080815012</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>144.8013425629423</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>44.51847645928569</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>61.40075786968279</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>112.6104454096923</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>26.01259675821734</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50775.64226829652</v>
+        <v>50775.64226829654</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982129</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>60535.99497675047</v>
+        <v>60535.99497675046</v>
       </c>
       <c r="F2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675043</v>
       </c>
       <c r="G2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675043</v>
       </c>
       <c r="H2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="I2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675043</v>
       </c>
       <c r="J2" t="n">
         <v>60535.99497675044</v>
       </c>
       <c r="K2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675043</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
         <v>61578.13273982125</v>
@@ -26353,7 +26353,7 @@
         <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982123</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>497513.940765615</v>
+        <v>497513.9407656146</v>
       </c>
       <c r="C3" t="n">
-        <v>273432.68156913</v>
+        <v>273432.6815691303</v>
       </c>
       <c r="D3" t="n">
         <v>291685.0095230265</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>155652.6364853841</v>
+        <v>155652.636485384</v>
       </c>
       <c r="K3" t="n">
         <v>11757.203129555</v>
@@ -26396,13 +26396,13 @@
         <v>19427.71799363173</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.523188338698153e-11</v>
+        <v>6.727012597756195e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178690.4677814941</v>
+        <v>178690.4677814942</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719698</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719696</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719697</v>
+        <v>7507.368461719694</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.36846171969</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719689</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="J4" t="n">
         <v>7507.36846171971</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.36846171972</v>
+        <v>7507.368461719711</v>
       </c>
       <c r="L4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481315</v>
       </c>
       <c r="M4" t="n">
         <v>15498.22772481316</v>
       </c>
       <c r="N4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481315</v>
       </c>
       <c r="O4" t="n">
         <v>15498.22772481315</v>
       </c>
       <c r="P4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481316</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76542.73383253238</v>
+        <v>76542.73383253237</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905218</v>
+        <v>85512.93677905216</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-701971.500111345</v>
+        <v>-702331.583127062</v>
       </c>
       <c r="C6" t="n">
-        <v>-495680.1202685132</v>
+        <v>-495680.1202685134</v>
       </c>
       <c r="D6" t="n">
-        <v>-456158.5127697942</v>
+        <v>-456158.5127697943</v>
       </c>
       <c r="E6" t="n">
-        <v>-555579.3449334223</v>
+        <v>-555614.082858858</v>
       </c>
       <c r="F6" t="n">
-        <v>-48093.90330887638</v>
+        <v>-48128.64123431205</v>
       </c>
       <c r="G6" t="n">
-        <v>-48093.90330887638</v>
+        <v>-48128.64123431207</v>
       </c>
       <c r="H6" t="n">
-        <v>-48093.90330887636</v>
+        <v>-48128.64123431203</v>
       </c>
       <c r="I6" t="n">
-        <v>-48093.90330887637</v>
+        <v>-48128.64123431205</v>
       </c>
       <c r="J6" t="n">
-        <v>-203746.5397942605</v>
+        <v>-203781.2777196961</v>
       </c>
       <c r="K6" t="n">
-        <v>-59851.1064384314</v>
+        <v>-59885.84436386711</v>
       </c>
       <c r="L6" t="n">
         <v>-76511.92883253904</v>
       </c>
       <c r="M6" t="n">
-        <v>-189691.5045678341</v>
+        <v>-189691.504567834</v>
       </c>
       <c r="N6" t="n">
         <v>-57084.2108389073</v>
@@ -26561,7 +26561,7 @@
         <v>-57084.21083890737</v>
       </c>
       <c r="P6" t="n">
-        <v>-57084.2108389073</v>
+        <v>-57084.21083890733</v>
       </c>
     </row>
   </sheetData>
@@ -26707,16 +26707,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
@@ -26725,7 +26725,7 @@
         <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>309.4068602368297</v>
+        <v>309.4068602368295</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>594.9023730159456</v>
+        <v>594.9023730159454</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.153985423372691e-14</v>
+        <v>8.408765747195243e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>309.4068602368297</v>
+        <v>309.4068602368295</v>
       </c>
       <c r="C3" t="n">
-        <v>284.0692401012353</v>
+        <v>284.0692401012356</v>
       </c>
       <c r="D3" t="n">
         <v>340.588791779474</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>594.9023730159456</v>
+        <v>594.9023730159454</v>
       </c>
       <c r="C4" t="n">
-        <v>45.68245908409324</v>
+        <v>45.68245908409338</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>594.9023730159454</v>
+        <v>594.9023730159452</v>
       </c>
       <c r="K4" t="n">
-        <v>45.68245908409358</v>
+        <v>45.68245908409361</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>594.9023730159456</v>
+        <v>594.9023730159454</v>
       </c>
       <c r="K4" t="n">
-        <v>45.68245908409324</v>
+        <v>45.68245908409338</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>209.947634362218</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.6759134952031</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.6509107473003</v>
       </c>
       <c r="U2" t="n">
         <v>251.246145173891</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6780005204371</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27506,10 +27506,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>129.6806429125984</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>197.4822295952212</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,13 +27543,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4330325613104</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>157.2665182564294</v>
@@ -27558,7 +27558,7 @@
         <v>138.6714930639233</v>
       </c>
       <c r="J4" t="n">
-        <v>53.91234155828221</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.44160735593309</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>152.2060744799341</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>15.13150929557199</v>
+        <v>214.2931070357591</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5616349313748</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2885958948282</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.1887379875838</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>231.9845280083818</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>82.76413027013945</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>70.53999045278843</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>70.53999045278871</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>157.3005539892814</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>137.271804153604</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
@@ -27795,7 +27795,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,10 +27825,10 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>96.71697272652457</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>174.5705023311111</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28029,7 +28029,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>81.24511999336781</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>216.8034931298456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29098,13 +29098,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.632408907794992e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H29" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29995,13 +29995,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31042,46 +31042,46 @@
         <v>1.243846674318912</v>
       </c>
       <c r="H2" t="n">
-        <v>12.73854475336857</v>
+        <v>12.73854475336856</v>
       </c>
       <c r="I2" t="n">
-        <v>47.95339891167993</v>
+        <v>47.95339891167989</v>
       </c>
       <c r="J2" t="n">
-        <v>105.5699316744749</v>
+        <v>105.5699316744748</v>
       </c>
       <c r="K2" t="n">
-        <v>158.2219613983945</v>
+        <v>158.2219613983944</v>
       </c>
       <c r="L2" t="n">
-        <v>196.288334057582</v>
+        <v>196.2883340575818</v>
       </c>
       <c r="M2" t="n">
-        <v>218.4085923520009</v>
+        <v>218.4085923520008</v>
       </c>
       <c r="N2" t="n">
-        <v>221.9426717154095</v>
+        <v>221.9426717154094</v>
       </c>
       <c r="O2" t="n">
-        <v>209.5741713476509</v>
+        <v>209.5741713476507</v>
       </c>
       <c r="P2" t="n">
-        <v>178.8667065754027</v>
+        <v>178.8667065754025</v>
       </c>
       <c r="Q2" t="n">
-        <v>134.3214475513566</v>
+        <v>134.3214475513565</v>
       </c>
       <c r="R2" t="n">
-        <v>78.13378365568546</v>
+        <v>78.13378365568541</v>
       </c>
       <c r="S2" t="n">
-        <v>28.34415609104225</v>
+        <v>28.34415609104223</v>
       </c>
       <c r="T2" t="n">
-        <v>5.444938816831042</v>
+        <v>5.444938816831039</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09950773394551299</v>
+        <v>0.09950773394551292</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6655166427735584</v>
+        <v>0.6655166427735578</v>
       </c>
       <c r="H3" t="n">
-        <v>6.427489681523578</v>
+        <v>6.427489681523573</v>
       </c>
       <c r="I3" t="n">
-        <v>22.91362125338787</v>
+        <v>22.91362125338785</v>
       </c>
       <c r="J3" t="n">
-        <v>62.87672807888255</v>
+        <v>62.87672807888251</v>
       </c>
       <c r="K3" t="n">
-        <v>107.466343144711</v>
+        <v>107.4663431447109</v>
       </c>
       <c r="L3" t="n">
-        <v>144.5017605285307</v>
+        <v>144.5017605285306</v>
       </c>
       <c r="M3" t="n">
-        <v>168.6267388290722</v>
+        <v>168.6267388290721</v>
       </c>
       <c r="N3" t="n">
-        <v>173.0897868413563</v>
+        <v>173.0897868413562</v>
       </c>
       <c r="O3" t="n">
-        <v>158.3433391251632</v>
+        <v>158.3433391251631</v>
       </c>
       <c r="P3" t="n">
-        <v>127.0844894433122</v>
+        <v>127.0844894433121</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.95261566351599</v>
+        <v>84.95261566351591</v>
       </c>
       <c r="R3" t="n">
-        <v>41.32041050483551</v>
+        <v>41.32041050483548</v>
       </c>
       <c r="S3" t="n">
-        <v>12.36167974625446</v>
+        <v>12.36167974625445</v>
       </c>
       <c r="T3" t="n">
-        <v>2.682499099600438</v>
+        <v>2.682499099600436</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04378398965615517</v>
+        <v>0.04378398965615514</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5579467971483815</v>
+        <v>0.557946797148381</v>
       </c>
       <c r="H4" t="n">
-        <v>4.960654251010158</v>
+        <v>4.960654251010155</v>
       </c>
       <c r="I4" t="n">
-        <v>16.77898186333497</v>
+        <v>16.77898186333496</v>
       </c>
       <c r="J4" t="n">
-        <v>39.44683855839057</v>
+        <v>39.44683855839054</v>
       </c>
       <c r="K4" t="n">
-        <v>64.82327334142103</v>
+        <v>64.82327334142099</v>
       </c>
       <c r="L4" t="n">
-        <v>82.95147200513301</v>
+        <v>82.95147200513296</v>
       </c>
       <c r="M4" t="n">
-        <v>87.46069657481399</v>
+        <v>87.46069657481394</v>
       </c>
       <c r="N4" t="n">
-        <v>85.38107669453375</v>
+        <v>85.38107669453368</v>
       </c>
       <c r="O4" t="n">
-        <v>78.86324365511852</v>
+        <v>78.86324365511847</v>
       </c>
       <c r="P4" t="n">
-        <v>67.48112899329149</v>
+        <v>67.48112899329143</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.72043589576129</v>
+        <v>46.72043589576126</v>
       </c>
       <c r="R4" t="n">
-        <v>25.0873168972354</v>
+        <v>25.08731689723538</v>
       </c>
       <c r="S4" t="n">
-        <v>9.723491001213153</v>
+        <v>9.723491001213146</v>
       </c>
       <c r="T4" t="n">
-        <v>2.38395449690672</v>
+        <v>2.383954496906719</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03043346166263902</v>
+        <v>0.030433461662639</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,7 +33026,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>197.6412480909884</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>741.1502463817021</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.62064231986238</v>
+        <v>93.62064231986231</v>
       </c>
       <c r="K2" t="n">
-        <v>262.2775229245787</v>
+        <v>262.2775229245786</v>
       </c>
       <c r="L2" t="n">
-        <v>378.1831336380452</v>
+        <v>378.183133638045</v>
       </c>
       <c r="M2" t="n">
-        <v>437.5758926175607</v>
+        <v>437.5758926175605</v>
       </c>
       <c r="N2" t="n">
-        <v>429.8765325308028</v>
+        <v>429.8765325308026</v>
       </c>
       <c r="O2" t="n">
-        <v>360.2761411887095</v>
+        <v>360.2761411887093</v>
       </c>
       <c r="P2" t="n">
-        <v>269.4324189916158</v>
+        <v>269.4324189916156</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.3307483368118</v>
+        <v>124.3307483368117</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.13013675262465</v>
       </c>
       <c r="K3" t="n">
-        <v>234.0901411829306</v>
+        <v>234.0901411829305</v>
       </c>
       <c r="L3" t="n">
-        <v>231.9642796667147</v>
+        <v>376.7877260521157</v>
       </c>
       <c r="M3" t="n">
-        <v>492.1977686570538</v>
+        <v>285.2441855190281</v>
       </c>
       <c r="N3" t="n">
-        <v>521.0904491015765</v>
+        <v>521.0904491015764</v>
       </c>
       <c r="O3" t="n">
-        <v>409.6094139574483</v>
+        <v>409.6094139574482</v>
       </c>
       <c r="P3" t="n">
-        <v>311.5728506689192</v>
+        <v>311.572850668919</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.0481293133436</v>
+        <v>155.0481293133435</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>42.55378151553818</v>
+        <v>42.55378151553813</v>
       </c>
       <c r="L4" t="n">
-        <v>110.5414972654492</v>
+        <v>110.5414972654491</v>
       </c>
       <c r="M4" t="n">
-        <v>127.0445735366546</v>
+        <v>127.0445735366545</v>
       </c>
       <c r="N4" t="n">
         <v>129.5132490737623</v>
       </c>
       <c r="O4" t="n">
-        <v>103.4483715691582</v>
+        <v>103.4483715691581</v>
       </c>
       <c r="P4" t="n">
-        <v>64.75968825818498</v>
+        <v>64.75968825818492</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
         <v>83.39712583292157</v>
@@ -34945,10 +34945,10 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>366.1401706829425</v>
       </c>
       <c r="O5" t="n">
-        <v>454.2807623269672</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
         <v>111.8528537874005</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>429.8474401694565</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P6" t="n">
-        <v>205.9632545433047</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>466.4238188159148</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35267,7 +35267,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>418.4229873015965</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667036</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902961</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,19 +35969,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>609.8085342983688</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
